--- a/Core.Tests/Specs/Simple-ProRata.xlsx
+++ b/Core.Tests/Specs/Simple-ProRata.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24105" windowHeight="14310" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24105" windowHeight="14310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>ContributionAmount</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t>DcFeePercentage2</t>
-  </si>
-  <si>
-    <t>ProRataInstallment</t>
   </si>
   <si>
     <t>ProRataPercentage</t>
@@ -623,7 +620,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +665,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -685,7 +682,7 @@
         <v>0.03</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K2" s="10">
         <v>3.4200000000000001E-2</v>
@@ -702,7 +699,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +736,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>10</v>
@@ -757,9 +754,6 @@
         <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
@@ -783,10 +777,6 @@
         <f>D2/SUM(D$2:D$4)</f>
         <v>0.5714285714285714</v>
       </c>
-      <c r="K2">
-        <f>J2*Input!B$2</f>
-        <v>2857.1428571428569</v>
-      </c>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
@@ -807,12 +797,8 @@
         <v>5000</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J5" si="0">D3/SUM(D$2:D$4)</f>
+        <f t="shared" ref="J3:J4" si="0">D3/SUM(D$2:D$4)</f>
         <v>0.2857142857142857</v>
-      </c>
-      <c r="K3">
-        <f>J3*Input!B$2</f>
-        <v>1428.5714285714284</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,10 +820,6 @@
       <c r="J4">
         <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
-      </c>
-      <c r="K4">
-        <f>J4*Input!B$2</f>
-        <v>714.28571428571422</v>
       </c>
     </row>
   </sheetData>
@@ -850,9 +832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S363"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomLeft" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,27 +862,27 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="8">
         <v>1</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I1" s="6" t="str">
         <f ca="1">INDIRECT("Creditors!"&amp;H1)</f>
         <v>Home</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L1" s="6" t="str">
         <f ca="1">INDIRECT("Creditors!"&amp;K1)</f>
         <v>Vehicle</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O1" s="6" t="str">
         <f ca="1">INDIRECT("Creditors!"&amp;N1)</f>
@@ -947,10 +929,10 @@
     </row>
     <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
@@ -962,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" s="6" t="str">
         <f ca="1">I1&amp;"-Inst"</f>
@@ -1004,13 +986,13 @@
         <v>CreditCard-CB</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S3" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -23358,9 +23340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P364"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomLeft" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23388,7 +23370,7 @@
         <v>CreditorName</v>
       </c>
       <c r="E1" s="2" t="str">
-        <f t="shared" ref="E1:O1" ca="1" si="0">INDIRECT("Creditors!"&amp;ADDRESS(ROW(),COLUMN()-3))</f>
+        <f t="shared" ref="E1:M1" ca="1" si="0">INDIRECT("Creditors!"&amp;ADDRESS(ROW(),COLUMN()-3))</f>
         <v>CreditorType</v>
       </c>
       <c r="F1" s="2" t="str">
@@ -23423,10 +23405,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>ProRataPercentage</v>
       </c>
-      <c r="N1" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ProRataInstallment</v>
-      </c>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -23435,7 +23414,7 @@
         <v>Home</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:N2" ca="1" si="1">INDIRECT("Creditors!"&amp;ADDRESS(_xlfn.SHEET()-2,COLUMN()-3))</f>
+        <f t="shared" ref="E2:M2" ca="1" si="1">INDIRECT("Creditors!"&amp;ADDRESS(_xlfn.SHEET()-2,COLUMN()-3))</f>
         <v>HL</v>
       </c>
       <c r="F2">
@@ -23470,28 +23449,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="1"/>
-        <v>2857.1428571428569</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
@@ -23505,16 +23480,16 @@
         <v>LinkedInsurance</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="K4" s="6" t="str">
         <f>'Amortisation-Summary'!R3</f>
@@ -23525,10 +23500,10 @@
         <v>UnallocatedAmount</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -31957,7 +31932,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
-        <f t="shared" ref="A328:A365" si="30">A327+1</f>
+        <f t="shared" ref="A328:A364" si="30">A327+1</f>
         <v>324</v>
       </c>
       <c r="F328">
@@ -32929,7 +32904,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32958,7 +32933,7 @@
         <v>CreditorName</v>
       </c>
       <c r="E1" s="2" t="str">
-        <f t="shared" ref="E1:N1" ca="1" si="0">INDIRECT("Creditors!"&amp;ADDRESS(ROW(),COLUMN()-3))</f>
+        <f t="shared" ref="E1:M1" ca="1" si="0">INDIRECT("Creditors!"&amp;ADDRESS(ROW(),COLUMN()-3))</f>
         <v>CreditorType</v>
       </c>
       <c r="F1" s="2" t="str">
@@ -32993,10 +32968,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>ProRataPercentage</v>
       </c>
-      <c r="N1" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ProRataInstallment</v>
-      </c>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D2" t="str">
@@ -33004,7 +32976,7 @@
         <v>Vehicle</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:N2" ca="1" si="1">INDIRECT("Creditors!"&amp;ADDRESS(_xlfn.SHEET()-2,COLUMN()-3))</f>
+        <f t="shared" ref="E2:M2" ca="1" si="1">INDIRECT("Creditors!"&amp;ADDRESS(_xlfn.SHEET()-2,COLUMN()-3))</f>
         <v>VF</v>
       </c>
       <c r="F2">
@@ -33039,28 +33011,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="1"/>
-        <v>1428.5714285714284</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
@@ -33074,16 +33042,16 @@
         <v>LinkedInsurance</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="K4" s="6" t="str">
         <f>'Amortisation-Summary'!R3</f>
@@ -33094,10 +33062,10 @@
         <v>UnallocatedAmount</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -42497,7 +42465,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42528,7 +42496,7 @@
         <v>CreditorName</v>
       </c>
       <c r="E1" s="2" t="str">
-        <f t="shared" ref="E1:N1" ca="1" si="0">INDIRECT("Creditors!"&amp;ADDRESS(ROW(),COLUMN()-3))</f>
+        <f t="shared" ref="E1:M1" ca="1" si="0">INDIRECT("Creditors!"&amp;ADDRESS(ROW(),COLUMN()-3))</f>
         <v>CreditorType</v>
       </c>
       <c r="F1" s="2" t="str">
@@ -42563,10 +42531,7 @@
         <f t="shared" ca="1" si="0"/>
         <v>ProRataPercentage</v>
       </c>
-      <c r="N1" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>ProRataInstallment</v>
-      </c>
+      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -42580,7 +42545,7 @@
         <v>CreditCard</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:N2" ca="1" si="1">INDIRECT("Creditors!"&amp;ADDRESS(_xlfn.SHEET()-2,COLUMN()-3))</f>
+        <f t="shared" ref="E2:M2" ca="1" si="1">INDIRECT("Creditors!"&amp;ADDRESS(_xlfn.SHEET()-2,COLUMN()-3))</f>
         <v>CO</v>
       </c>
       <c r="F2">
@@ -42615,28 +42580,24 @@
         <f t="shared" ca="1" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="N2">
-        <f t="shared" ca="1" si="1"/>
-        <v>714.28571428571422</v>
-      </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="P3" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>9</v>
@@ -42650,16 +42611,16 @@
         <v>LinkedInsurance</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="K4" s="6" t="str">
         <f>'Amortisation-Summary'!R3</f>
@@ -42670,7 +42631,7 @@
         <v>UnallocatedAmount</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -51083,7 +51044,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
-        <f t="shared" ref="A328:A365" si="29">A327+1</f>
+        <f t="shared" ref="A328:A364" si="29">A327+1</f>
         <v>324</v>
       </c>
       <c r="F328">
